--- a/output/2.xlsx
+++ b/output/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>ρ (g/cm3)</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tension</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Overburden</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -478,6 +488,12 @@
       </c>
       <c r="F2" t="n">
         <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1861.58286</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.595422535211268</v>
       </c>
     </row>
     <row r="3">
@@ -501,6 +517,12 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
+      <c r="G3" t="n">
+        <v>3289.62636</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.80924916802044</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,6 +545,12 @@
       <c r="F4" t="n">
         <v>2.161556523840733</v>
       </c>
+      <c r="G4" t="n">
+        <v>3596.999697690152</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.19255204425166</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,6 +573,12 @@
       <c r="F5" t="n">
         <v>2.151368839296418</v>
       </c>
+      <c r="G5" t="n">
+        <v>3902.924346638103</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.53297361648353</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -565,6 +599,12 @@
       <c r="F6" t="n">
         <v>2.174050552207954</v>
       </c>
+      <c r="G6" t="n">
+        <v>4212.074335162074</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.84983034437631</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -585,6 +625,12 @@
       <c r="F7" t="n">
         <v>2.132462216383394</v>
       </c>
+      <c r="G7" t="n">
+        <v>4515.310462331792</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12.1218210591402</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -605,6 +651,12 @@
       <c r="F8" t="n">
         <v>2.208105740963795</v>
       </c>
+      <c r="G8" t="n">
+        <v>4829.303098696844</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12.39762932027786</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -625,6 +677,12 @@
       <c r="F9" t="n">
         <v>2.19279285258737</v>
       </c>
+      <c r="G9" t="n">
+        <v>5141.118242334768</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12.64496299406644</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -645,6 +703,12 @@
       <c r="F10" t="n">
         <v>2.204748257649101</v>
       </c>
+      <c r="G10" t="n">
+        <v>5454.633444572471</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.87641176639054</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -665,6 +729,12 @@
       <c r="F11" t="n">
         <v>2.237042218432583</v>
       </c>
+      <c r="G11" t="n">
+        <v>5772.740848033583</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.10038172325882</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -685,6 +755,12 @@
       <c r="F12" t="n">
         <v>2.257446013904464</v>
       </c>
+      <c r="G12" t="n">
+        <v>6093.749671210799</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13.31401404782492</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -705,6 +781,12 @@
       <c r="F13" t="n">
         <v>2.289075925256979</v>
       </c>
+      <c r="G13" t="n">
+        <v>6419.256267782341</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13.52178453422027</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -725,6 +807,12 @@
       <c r="F14" t="n">
         <v>2.276311688218188</v>
       </c>
+      <c r="G14" t="n">
+        <v>6742.947789846967</v>
+      </c>
+      <c r="H14" t="n">
+        <v>13.71146564328474</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -745,6 +833,12 @@
       <c r="F15" t="n">
         <v>2.286984487783314</v>
       </c>
+      <c r="G15" t="n">
+        <v>7068.156984009754</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13.89142481818469</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -765,6 +859,12 @@
       <c r="F16" t="n">
         <v>2.340878323582868</v>
       </c>
+      <c r="G16" t="n">
+        <v>7401.029881623237</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14.07429486493455</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -785,6 +885,12 @@
       <c r="F17" t="n">
         <v>2.346360994995949</v>
       </c>
+      <c r="G17" t="n">
+        <v>7734.682415111661</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14.24712138329602</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -805,6 +911,12 @@
       <c r="F18" t="n">
         <v>2.38663560222362</v>
       </c>
+      <c r="G18" t="n">
+        <v>8074.061997747859</v>
+      </c>
+      <c r="H18" t="n">
+        <v>14.41965701294269</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -825,6 +937,12 @@
       <c r="F19" t="n">
         <v>2.421512616718025</v>
       </c>
+      <c r="G19" t="n">
+        <v>8418.401091845162</v>
+      </c>
+      <c r="H19" t="n">
+        <v>14.59059724633392</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -845,6 +963,12 @@
       <c r="F20" t="n">
         <v>2.437246485696484</v>
       </c>
+      <c r="G20" t="n">
+        <v>8764.977542111203</v>
+      </c>
+      <c r="H20" t="n">
+        <v>14.7554967389868</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -865,6 +989,12 @@
       <c r="F21" t="n">
         <v>2.411141580570958</v>
       </c>
+      <c r="G21" t="n">
+        <v>9107.841874868393</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14.90512444533317</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -885,6 +1015,12 @@
       <c r="F22" t="n">
         <v>2.465663872989739</v>
       </c>
+      <c r="G22" t="n">
+        <v>9458.459277607533</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15.05897724547064</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -905,6 +1041,12 @@
       <c r="F23" t="n">
         <v>2.44012331611175</v>
       </c>
+      <c r="G23" t="n">
+        <v>9805.444813158625</v>
+      </c>
+      <c r="H23" t="n">
+        <v>15.19907295775675</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -925,6 +1067,12 @@
       <c r="F24" t="n">
         <v>2.518279588914512</v>
       </c>
+      <c r="G24" t="n">
+        <v>10163.54417070227</v>
+      </c>
+      <c r="H24" t="n">
+        <v>15.34874222063292</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -945,6 +1093,12 @@
       <c r="F25" t="n">
         <v>2.521668936542</v>
       </c>
+      <c r="G25" t="n">
+        <v>10522.12549347854</v>
+      </c>
+      <c r="H25" t="n">
+        <v>15.49161132843848</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -965,6 +1119,12 @@
       <c r="F26" t="n">
         <v>2.553964107412856</v>
       </c>
+      <c r="G26" t="n">
+        <v>10885.29918955265</v>
+      </c>
+      <c r="H26" t="n">
+        <v>15.63408315919102</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -985,6 +1145,12 @@
       <c r="F27" t="n">
         <v>2.624751171232131</v>
       </c>
+      <c r="G27" t="n">
+        <v>11258.53880610186</v>
+      </c>
+      <c r="H27" t="n">
+        <v>15.78385980052816</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1005,6 +1171,12 @@
       <c r="F28" t="n">
         <v>2.663650163141134</v>
       </c>
+      <c r="G28" t="n">
+        <v>11637.30985930053</v>
+      </c>
+      <c r="H28" t="n">
+        <v>15.9342211722473</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1025,6 +1197,12 @@
       <c r="F29" t="n">
         <v>2.571662621997615</v>
       </c>
+      <c r="G29" t="n">
+        <v>12003.00028414859</v>
+      </c>
+      <c r="H29" t="n">
+        <v>16.06022401108278</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1045,6 +1223,12 @@
       <c r="F30" t="n">
         <v>2.610305552834839</v>
       </c>
+      <c r="G30" t="n">
+        <v>12374.1857337617</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16.18779778842693</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1065,6 +1249,12 @@
       <c r="F31" t="n">
         <v>2.527741684472488</v>
       </c>
+      <c r="G31" t="n">
+        <v>12733.63060129369</v>
+      </c>
+      <c r="H31" t="n">
+        <v>16.29478393274603</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1085,6 +1275,12 @@
       <c r="F32" t="n">
         <v>2.577985076666655</v>
       </c>
+      <c r="G32" t="n">
+        <v>13100.22007919569</v>
+      </c>
+      <c r="H32" t="n">
+        <v>16.40615147607258</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1105,6 +1301,12 @@
       <c r="F33" t="n">
         <v>2.600793166657234</v>
       </c>
+      <c r="G33" t="n">
+        <v>13470.05286749434</v>
+      </c>
+      <c r="H33" t="n">
+        <v>16.51684204552787</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1125,6 +1327,12 @@
       <c r="F34" t="n">
         <v>2.62839949087222</v>
       </c>
+      <c r="G34" t="n">
+        <v>13843.81127509637</v>
+      </c>
+      <c r="H34" t="n">
+        <v>16.6277167242908</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1145,6 +1353,12 @@
       <c r="F35" t="n">
         <v>2.563659522050269</v>
       </c>
+      <c r="G35" t="n">
+        <v>14208.36365913192</v>
+      </c>
+      <c r="H35" t="n">
+        <v>16.72330843160371</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1165,6 +1379,12 @@
       <c r="F36" t="n">
         <v>2.575427877499805</v>
       </c>
+      <c r="G36" t="n">
+        <v>14574.58950331239</v>
+      </c>
+      <c r="H36" t="n">
+        <v>16.81707206853435</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1185,6 +1405,12 @@
       <c r="F37" t="n">
         <v>2.631126158814798</v>
       </c>
+      <c r="G37" t="n">
+        <v>14948.73564309586</v>
+      </c>
+      <c r="H37" t="n">
+        <v>16.91618238510492</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1205,6 +1431,12 @@
       <c r="F38" t="n">
         <v>2.79790618827796</v>
       </c>
+      <c r="G38" t="n">
+        <v>15346.59790306899</v>
+      </c>
+      <c r="H38" t="n">
+        <v>17.03787254385864</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1225,6 +1457,12 @@
       <c r="F39" t="n">
         <v>2.647680647953138</v>
       </c>
+      <c r="G39" t="n">
+        <v>15723.09809120792</v>
+      </c>
+      <c r="H39" t="n">
+        <v>17.13176799353732</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1244,6 +1482,12 @@
       </c>
       <c r="F40" t="n">
         <v>2.590867231853621</v>
+      </c>
+      <c r="G40" t="n">
+        <v>16091.51941157751</v>
+      </c>
+      <c r="H40" t="n">
+        <v>17.21359813410823</v>
       </c>
     </row>
   </sheetData>

--- a/output/2.xlsx
+++ b/output/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,6 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Tension</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>Overburden</t>
         </is>
       </c>
@@ -490,9 +485,6 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1861.58286</v>
-      </c>
-      <c r="H2" t="n">
         <v>8.595422535211268</v>
       </c>
     </row>
@@ -518,9 +510,6 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3289.62636</v>
-      </c>
-      <c r="H3" t="n">
         <v>10.80924916802044</v>
       </c>
     </row>
@@ -546,9 +535,6 @@
         <v>2.161556523840733</v>
       </c>
       <c r="G4" t="n">
-        <v>3596.999697690152</v>
-      </c>
-      <c r="H4" t="n">
         <v>11.19255204425166</v>
       </c>
     </row>
@@ -574,9 +560,6 @@
         <v>2.151368839296418</v>
       </c>
       <c r="G5" t="n">
-        <v>3902.924346638103</v>
-      </c>
-      <c r="H5" t="n">
         <v>11.53297361648353</v>
       </c>
     </row>
@@ -600,9 +583,6 @@
         <v>2.174050552207954</v>
       </c>
       <c r="G6" t="n">
-        <v>4212.074335162074</v>
-      </c>
-      <c r="H6" t="n">
         <v>11.84983034437631</v>
       </c>
     </row>
@@ -626,9 +606,6 @@
         <v>2.132462216383394</v>
       </c>
       <c r="G7" t="n">
-        <v>4515.310462331792</v>
-      </c>
-      <c r="H7" t="n">
         <v>12.1218210591402</v>
       </c>
     </row>
@@ -652,9 +629,6 @@
         <v>2.208105740963795</v>
       </c>
       <c r="G8" t="n">
-        <v>4829.303098696844</v>
-      </c>
-      <c r="H8" t="n">
         <v>12.39762932027786</v>
       </c>
     </row>
@@ -678,9 +652,6 @@
         <v>2.19279285258737</v>
       </c>
       <c r="G9" t="n">
-        <v>5141.118242334768</v>
-      </c>
-      <c r="H9" t="n">
         <v>12.64496299406644</v>
       </c>
     </row>
@@ -704,9 +675,6 @@
         <v>2.204748257649101</v>
       </c>
       <c r="G10" t="n">
-        <v>5454.633444572471</v>
-      </c>
-      <c r="H10" t="n">
         <v>12.87641176639054</v>
       </c>
     </row>
@@ -730,9 +698,6 @@
         <v>2.237042218432583</v>
       </c>
       <c r="G11" t="n">
-        <v>5772.740848033583</v>
-      </c>
-      <c r="H11" t="n">
         <v>13.10038172325882</v>
       </c>
     </row>
@@ -756,9 +721,6 @@
         <v>2.257446013904464</v>
       </c>
       <c r="G12" t="n">
-        <v>6093.749671210799</v>
-      </c>
-      <c r="H12" t="n">
         <v>13.31401404782492</v>
       </c>
     </row>
@@ -782,9 +744,6 @@
         <v>2.289075925256979</v>
       </c>
       <c r="G13" t="n">
-        <v>6419.256267782341</v>
-      </c>
-      <c r="H13" t="n">
         <v>13.52178453422027</v>
       </c>
     </row>
@@ -808,9 +767,6 @@
         <v>2.276311688218188</v>
       </c>
       <c r="G14" t="n">
-        <v>6742.947789846967</v>
-      </c>
-      <c r="H14" t="n">
         <v>13.71146564328474</v>
       </c>
     </row>
@@ -834,9 +790,6 @@
         <v>2.286984487783314</v>
       </c>
       <c r="G15" t="n">
-        <v>7068.156984009754</v>
-      </c>
-      <c r="H15" t="n">
         <v>13.89142481818469</v>
       </c>
     </row>
@@ -860,9 +813,6 @@
         <v>2.340878323582868</v>
       </c>
       <c r="G16" t="n">
-        <v>7401.029881623237</v>
-      </c>
-      <c r="H16" t="n">
         <v>14.07429486493455</v>
       </c>
     </row>
@@ -886,9 +836,6 @@
         <v>2.346360994995949</v>
       </c>
       <c r="G17" t="n">
-        <v>7734.682415111661</v>
-      </c>
-      <c r="H17" t="n">
         <v>14.24712138329602</v>
       </c>
     </row>
@@ -912,9 +859,6 @@
         <v>2.38663560222362</v>
       </c>
       <c r="G18" t="n">
-        <v>8074.061997747859</v>
-      </c>
-      <c r="H18" t="n">
         <v>14.41965701294269</v>
       </c>
     </row>
@@ -938,9 +882,6 @@
         <v>2.421512616718025</v>
       </c>
       <c r="G19" t="n">
-        <v>8418.401091845162</v>
-      </c>
-      <c r="H19" t="n">
         <v>14.59059724633392</v>
       </c>
     </row>
@@ -964,9 +905,6 @@
         <v>2.437246485696484</v>
       </c>
       <c r="G20" t="n">
-        <v>8764.977542111203</v>
-      </c>
-      <c r="H20" t="n">
         <v>14.7554967389868</v>
       </c>
     </row>
@@ -990,9 +928,6 @@
         <v>2.411141580570958</v>
       </c>
       <c r="G21" t="n">
-        <v>9107.841874868393</v>
-      </c>
-      <c r="H21" t="n">
         <v>14.90512444533317</v>
       </c>
     </row>
@@ -1016,9 +951,6 @@
         <v>2.465663872989739</v>
       </c>
       <c r="G22" t="n">
-        <v>9458.459277607533</v>
-      </c>
-      <c r="H22" t="n">
         <v>15.05897724547064</v>
       </c>
     </row>
@@ -1042,9 +974,6 @@
         <v>2.44012331611175</v>
       </c>
       <c r="G23" t="n">
-        <v>9805.444813158625</v>
-      </c>
-      <c r="H23" t="n">
         <v>15.19907295775675</v>
       </c>
     </row>
@@ -1068,9 +997,6 @@
         <v>2.518279588914512</v>
       </c>
       <c r="G24" t="n">
-        <v>10163.54417070227</v>
-      </c>
-      <c r="H24" t="n">
         <v>15.34874222063292</v>
       </c>
     </row>
@@ -1094,9 +1020,6 @@
         <v>2.521668936542</v>
       </c>
       <c r="G25" t="n">
-        <v>10522.12549347854</v>
-      </c>
-      <c r="H25" t="n">
         <v>15.49161132843848</v>
       </c>
     </row>
@@ -1120,9 +1043,6 @@
         <v>2.553964107412856</v>
       </c>
       <c r="G26" t="n">
-        <v>10885.29918955265</v>
-      </c>
-      <c r="H26" t="n">
         <v>15.63408315919102</v>
       </c>
     </row>
@@ -1146,9 +1066,6 @@
         <v>2.624751171232131</v>
       </c>
       <c r="G27" t="n">
-        <v>11258.53880610186</v>
-      </c>
-      <c r="H27" t="n">
         <v>15.78385980052816</v>
       </c>
     </row>
@@ -1172,9 +1089,6 @@
         <v>2.663650163141134</v>
       </c>
       <c r="G28" t="n">
-        <v>11637.30985930053</v>
-      </c>
-      <c r="H28" t="n">
         <v>15.9342211722473</v>
       </c>
     </row>
@@ -1198,9 +1112,6 @@
         <v>2.571662621997615</v>
       </c>
       <c r="G29" t="n">
-        <v>12003.00028414859</v>
-      </c>
-      <c r="H29" t="n">
         <v>16.06022401108278</v>
       </c>
     </row>
@@ -1224,9 +1135,6 @@
         <v>2.610305552834839</v>
       </c>
       <c r="G30" t="n">
-        <v>12374.1857337617</v>
-      </c>
-      <c r="H30" t="n">
         <v>16.18779778842693</v>
       </c>
     </row>
@@ -1250,9 +1158,6 @@
         <v>2.527741684472488</v>
       </c>
       <c r="G31" t="n">
-        <v>12733.63060129369</v>
-      </c>
-      <c r="H31" t="n">
         <v>16.29478393274603</v>
       </c>
     </row>
@@ -1276,9 +1181,6 @@
         <v>2.577985076666655</v>
       </c>
       <c r="G32" t="n">
-        <v>13100.22007919569</v>
-      </c>
-      <c r="H32" t="n">
         <v>16.40615147607258</v>
       </c>
     </row>
@@ -1302,9 +1204,6 @@
         <v>2.600793166657234</v>
       </c>
       <c r="G33" t="n">
-        <v>13470.05286749434</v>
-      </c>
-      <c r="H33" t="n">
         <v>16.51684204552787</v>
       </c>
     </row>
@@ -1328,9 +1227,6 @@
         <v>2.62839949087222</v>
       </c>
       <c r="G34" t="n">
-        <v>13843.81127509637</v>
-      </c>
-      <c r="H34" t="n">
         <v>16.6277167242908</v>
       </c>
     </row>
@@ -1354,9 +1250,6 @@
         <v>2.563659522050269</v>
       </c>
       <c r="G35" t="n">
-        <v>14208.36365913192</v>
-      </c>
-      <c r="H35" t="n">
         <v>16.72330843160371</v>
       </c>
     </row>
@@ -1380,9 +1273,6 @@
         <v>2.575427877499805</v>
       </c>
       <c r="G36" t="n">
-        <v>14574.58950331239</v>
-      </c>
-      <c r="H36" t="n">
         <v>16.81707206853435</v>
       </c>
     </row>
@@ -1406,9 +1296,6 @@
         <v>2.631126158814798</v>
       </c>
       <c r="G37" t="n">
-        <v>14948.73564309586</v>
-      </c>
-      <c r="H37" t="n">
         <v>16.91618238510492</v>
       </c>
     </row>
@@ -1432,9 +1319,6 @@
         <v>2.79790618827796</v>
       </c>
       <c r="G38" t="n">
-        <v>15346.59790306899</v>
-      </c>
-      <c r="H38" t="n">
         <v>17.03787254385864</v>
       </c>
     </row>
@@ -1458,9 +1342,6 @@
         <v>2.647680647953138</v>
       </c>
       <c r="G39" t="n">
-        <v>15723.09809120792</v>
-      </c>
-      <c r="H39" t="n">
         <v>17.13176799353732</v>
       </c>
     </row>
@@ -1484,9 +1365,6 @@
         <v>2.590867231853621</v>
       </c>
       <c r="G40" t="n">
-        <v>16091.51941157751</v>
-      </c>
-      <c r="H40" t="n">
         <v>17.21359813410823</v>
       </c>
     </row>
